--- a/EJEMPLO-FLOURISH.xlsx
+++ b/EJEMPLO-FLOURISH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nombres de partidos</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Partido 7</t>
+  </si>
+  <si>
+    <t>Partido 8</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +474,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
